--- a/data/logindata.xlsx
+++ b/data/logindata.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -37,19 +37,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>Lz</t>
+    <t>Aa</t>
   </si>
   <si>
-    <t>Lz199597</t>
-  </si>
-  <si>
-    <t>Lz199597..00</t>
-  </si>
-  <si>
-    <t>Sz</t>
-  </si>
-  <si>
-    <t>_</t>
+    <t>Aa123456</t>
   </si>
 </sst>
 </file>
@@ -980,13 +971,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="15.0909090909091" customWidth="1"/>
@@ -1006,30 +997,6 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/logindata.xlsx
+++ b/data/logindata.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -37,10 +37,22 @@
     <t>password</t>
   </si>
   <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
     <t>Aa</t>
   </si>
   <si>
     <t>Aa123456</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>用户或密码错误，请重新输入</t>
   </si>
 </sst>
 </file>
@@ -971,32 +983,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="15.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="13.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
